--- a/artfynd/A 28411-2023.xlsx
+++ b/artfynd/A 28411-2023.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111634171</v>
+        <v>111634177</v>
       </c>
       <c r="B3" t="n">
-        <v>73683</v>
+        <v>90350</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>306</v>
+        <v>4786</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Mandelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Lactarius volemus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,17 +841,17 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hermansmåla, söder om Siggagölen, Bl</t>
+          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>522996.846862453</v>
+        <v>522930.7548289222</v>
       </c>
       <c r="R3" t="n">
-        <v>6247111.736777187</v>
+        <v>6247121.901725554</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På askhögstubbe.</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -923,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111634177</v>
+        <v>111634171</v>
       </c>
       <c r="B4" t="n">
-        <v>90350</v>
+        <v>73683</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,21 +939,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4786</v>
+        <v>306</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mandelriska</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius volemus</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,17 +962,17 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
+          <t>Hermansmåla, söder om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>522930.7548289222</v>
+        <v>522996.846862453</v>
       </c>
       <c r="R4" t="n">
-        <v>6247121.901725554</v>
+        <v>6247111.736777187</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>På askhögstubbe.</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28411-2023.xlsx
+++ b/artfynd/A 28411-2023.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111634177</v>
+        <v>111634171</v>
       </c>
       <c r="B3" t="n">
-        <v>90350</v>
+        <v>73683</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4786</v>
+        <v>306</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mandelriska</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius volemus</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,17 +841,17 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
+          <t>Hermansmåla, söder om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>522930.7548289222</v>
+        <v>522996.846862453</v>
       </c>
       <c r="R3" t="n">
-        <v>6247121.901725554</v>
+        <v>6247111.736777187</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>På askhögstubbe.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -923,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111634171</v>
+        <v>111634177</v>
       </c>
       <c r="B4" t="n">
-        <v>73683</v>
+        <v>90350</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,21 +939,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>306</v>
+        <v>4786</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Mandelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Lactarius volemus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,17 +962,17 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hermansmåla, söder om Siggagölen, Bl</t>
+          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>522996.846862453</v>
+        <v>522930.7548289222</v>
       </c>
       <c r="R4" t="n">
-        <v>6247111.736777187</v>
+        <v>6247121.901725554</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På askhögstubbe.</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28411-2023.xlsx
+++ b/artfynd/A 28411-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111634202</v>
+        <v>111634177</v>
       </c>
       <c r="B2" t="n">
-        <v>92952</v>
+        <v>90350</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,41 +696,40 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2779</v>
+        <v>4786</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Mandelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Lactarius volemus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hermansmåla, söder om Siggagölen, Bl</t>
+          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>522996.846862453</v>
+        <v>522930.7548289222</v>
       </c>
       <c r="R2" t="n">
-        <v>6247111.736777187</v>
+        <v>6247121.901725554</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -774,7 +773,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På ask.</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -923,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111634177</v>
+        <v>111634202</v>
       </c>
       <c r="B4" t="n">
-        <v>90350</v>
+        <v>92952</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,40 +938,41 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4786</v>
+        <v>2779</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mandelriska</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius volemus</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
+          <t>Hermansmåla, söder om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>522930.7548289222</v>
+        <v>522996.846862453</v>
       </c>
       <c r="R4" t="n">
-        <v>6247121.901725554</v>
+        <v>6247111.736777187</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>På ask.</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28411-2023.xlsx
+++ b/artfynd/A 28411-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111634177</v>
+        <v>111634171</v>
       </c>
       <c r="B2" t="n">
-        <v>90350</v>
+        <v>73683</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4786</v>
+        <v>306</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mandelriska</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius volemus</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -719,17 +719,17 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
+          <t>Hermansmåla, söder om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>522930.7548289222</v>
+        <v>522996.846862453</v>
       </c>
       <c r="R2" t="n">
-        <v>6247121.901725554</v>
+        <v>6247111.736777187</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>På askhögstubbe.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111634171</v>
+        <v>111634177</v>
       </c>
       <c r="B3" t="n">
-        <v>73683</v>
+        <v>90350</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>306</v>
+        <v>4786</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Mandelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Lactarius volemus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -840,17 +840,17 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hermansmåla, söder om Siggagölen, Bl</t>
+          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>522996.846862453</v>
+        <v>522930.7548289222</v>
       </c>
       <c r="R3" t="n">
-        <v>6247111.736777187</v>
+        <v>6247121.901725554</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På askhögstubbe.</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 28411-2023.xlsx
+++ b/artfynd/A 28411-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111634171</v>
+        <v>111634177</v>
       </c>
       <c r="B2" t="n">
-        <v>73683</v>
+        <v>90350</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>306</v>
+        <v>4786</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Mandelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Lactarius volemus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -719,17 +719,17 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hermansmåla, söder om Siggagölen, Bl</t>
+          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>522996.846862453</v>
+        <v>522930.7548289222</v>
       </c>
       <c r="R2" t="n">
-        <v>6247111.736777187</v>
+        <v>6247121.901725554</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På askhögstubbe.</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111634177</v>
+        <v>111634171</v>
       </c>
       <c r="B3" t="n">
-        <v>90350</v>
+        <v>73683</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4786</v>
+        <v>306</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mandelriska</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius volemus</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -840,17 +840,17 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
+          <t>Hermansmåla, söder om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>522930.7548289222</v>
+        <v>522996.846862453</v>
       </c>
       <c r="R3" t="n">
-        <v>6247121.901725554</v>
+        <v>6247111.736777187</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>På askhögstubbe.</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 28411-2023.xlsx
+++ b/artfynd/A 28411-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111634177</v>
+        <v>111634202</v>
       </c>
       <c r="B2" t="n">
-        <v>90350</v>
+        <v>92952</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,40 +696,41 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4786</v>
+        <v>2779</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mandelriska</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius volemus</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
+          <t>Hermansmåla, söder om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>522930.7548289222</v>
+        <v>522996.846862453</v>
       </c>
       <c r="R2" t="n">
-        <v>6247121.901725554</v>
+        <v>6247111.736777187</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -773,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>På ask.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111634171</v>
+        <v>111634177</v>
       </c>
       <c r="B3" t="n">
-        <v>73683</v>
+        <v>90350</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>306</v>
+        <v>4786</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Mandelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Lactarius volemus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -840,17 +841,17 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hermansmåla, söder om Siggagölen, Bl</t>
+          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>522996.846862453</v>
+        <v>522930.7548289222</v>
       </c>
       <c r="R3" t="n">
-        <v>6247111.736777187</v>
+        <v>6247121.901725554</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -894,7 +895,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På askhögstubbe.</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111634202</v>
+        <v>111634171</v>
       </c>
       <c r="B4" t="n">
-        <v>92952</v>
+        <v>73683</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,27 +939,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2779</v>
+        <v>306</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På ask.</t>
+          <t>På askhögstubbe.</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28411-2023.xlsx
+++ b/artfynd/A 28411-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111634202</v>
+        <v>111634171</v>
       </c>
       <c r="B2" t="n">
-        <v>92952</v>
+        <v>73683</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,27 +696,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2779</v>
+        <v>306</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -774,7 +773,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På ask.</t>
+          <t>På askhögstubbe.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -923,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111634171</v>
+        <v>111634202</v>
       </c>
       <c r="B4" t="n">
-        <v>73683</v>
+        <v>92952</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,26 +938,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>306</v>
+        <v>2779</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På askhögstubbe.</t>
+          <t>På ask.</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28411-2023.xlsx
+++ b/artfynd/A 28411-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111634171</v>
+        <v>111634177</v>
       </c>
       <c r="B2" t="n">
-        <v>73683</v>
+        <v>90350</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>306</v>
+        <v>4786</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Mandelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Lactarius volemus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -719,17 +719,17 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hermansmåla, söder om Siggagölen, Bl</t>
+          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>522996.846862453</v>
+        <v>522931</v>
       </c>
       <c r="R2" t="n">
-        <v>6247111.736777187</v>
+        <v>6247122</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,24 +756,14 @@
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På askhögstubbe.</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111634177</v>
+        <v>111634202</v>
       </c>
       <c r="B3" t="n">
-        <v>90350</v>
+        <v>92952</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,40 +807,41 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4786</v>
+        <v>2779</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mandelriska</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius volemus</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hermansmåla, sydväst om Siggagölen, Bl</t>
+          <t>Hermansmåla, söder om Siggagölen, Bl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>522930.7548289222</v>
+        <v>522997</v>
       </c>
       <c r="R3" t="n">
-        <v>6247121.901725554</v>
+        <v>6247112</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -877,24 +868,14 @@
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>På ask.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +903,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111634202</v>
+        <v>111634171</v>
       </c>
       <c r="B4" t="n">
-        <v>92952</v>
+        <v>73683</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,27 +919,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2779</v>
+        <v>306</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -966,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>522996.846862453</v>
+        <v>522997</v>
       </c>
       <c r="R4" t="n">
-        <v>6247111.736777187</v>
+        <v>6247112</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -999,24 +979,14 @@
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På ask.</t>
+          <t>På askhögstubbe.</t>
         </is>
       </c>
       <c r="AD4" t="b">
